--- a/biology/Botanique/Holarrhena_floribunda/Holarrhena_floribunda.xlsx
+++ b/biology/Botanique/Holarrhena_floribunda/Holarrhena_floribunda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holarrhena floribunda, dont le nom commun est « Holarrhène » ou « Holarrhène du Sénégal » en français [2], est une espèce d'arbre ou d'arbuste à latex de la famille des Apocynacées[2], que l’on retrouve du Sénégal au Cameroun, jusqu’à la République démocratique du Congo [3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holarrhena floribunda, dont le nom commun est « Holarrhène » ou « Holarrhène du Sénégal » en français , est une espèce d'arbre ou d'arbuste à latex de la famille des Apocynacées, que l’on retrouve du Sénégal au Cameroun, jusqu’à la République démocratique du Congo .
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-Holarrhena floribunda est un arbuste ou un arbre dont la taille peut atteindre 25 mètres de haut[2].
+Holarrhena floribunda est un arbuste ou un arbre dont la taille peut atteindre 25 mètres de haut.
 Bois et écorce
-L'écorce est lisse chez les arbres jeunes, d’aspect liégeux chez les arbres adultes, de couleur gris pale à brun foncé[2].
+L'écorce est lisse chez les arbres jeunes, d’aspect liégeux chez les arbres adultes, de couleur gris pale à brun foncé.
 Feuilles
-Les feuilles sont simples, opposées, ovales ou elliptiques, de 8-13 cm[3].
+Les feuilles sont simples, opposées, ovales ou elliptiques, de 8-13 cm.
 Fleurs et fruits
-Les fleurs bisexuelles sont blanches et parfumées. Le fruit est composé de 2 follicules minces, de 30–60 cm de long, pendants, de couleur gris pâle à brun foncé, contenant de nombreuses graines. Ces graines font de 11–16 mm de long et sont garnies d’une touffe de poils denses[2].</t>
+Les fleurs bisexuelles sont blanches et parfumées. Le fruit est composé de 2 follicules minces, de 30–60 cm de long, pendants, de couleur gris pâle à brun foncé, contenant de nombreuses graines. Ces graines font de 11–16 mm de long et sont garnies d’une touffe de poils denses.</t>
         </is>
       </c>
     </row>
@@ -548,14 +562,16 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages avérés en pharmacopée
-Les racines s'utilisent en cas de coliques, gonorrhée, constipation, infections urinaires et stérilité (antiabortif), dysenterie, amibiase, hypertension, dermatose, ascite. Les racines et les feuilles peuvent aider lors des accouchements. L’écorce sert contre l’amibiase, la dysenterie, les coliques, les vomissements et l’insomnie. Les feuilles sont utilisées contre la diarrhée et la gonorrhée[3].
+Les racines s'utilisent en cas de coliques, gonorrhée, constipation, infections urinaires et stérilité (antiabortif), dysenterie, amibiase, hypertension, dermatose, ascite. Les racines et les feuilles peuvent aider lors des accouchements. L’écorce sert contre l’amibiase, la dysenterie, les coliques, les vomissements et l’insomnie. Les feuilles sont utilisées contre la diarrhée et la gonorrhée.
 Usages agricoles, pastoraux et vétérinaires
-Les feuilles sont utilisées comme galactagogue pour les bovins. L’arbre peut être employé en culture ornementale[3].
+Les feuilles sont utilisées comme galactagogue pour les bovins. L’arbre peut être employé en culture ornementale.
 Usages domestiques, artisanaux et industriels
-Le bois, facile à travailler, permet la confection d’ustensiles ménagers, de sièges, de sculptures, de cannes[3].</t>
+Le bois, facile à travailler, permet la confection d’ustensiles ménagers, de sièges, de sculptures, de cannes.</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 juillet 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 juillet 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Holarrhena floribunda var. floribunda
 variété Holarrhena floribunda var. tomentella H. Huber</t>
         </is>
